--- a/樋田関係/クモ仕様書(β樋田用).xlsx
+++ b/樋田関係/クモ仕様書(β樋田用).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="793" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="793" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="188">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -3875,12 +3875,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>　フローチャート</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3971,6 +3975,14 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4095,7 +4107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4173,6 +4185,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4197,6 +4212,2726 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4162425" y="1895475"/>
+          <a:ext cx="19051" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="カギ線コネクタ 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4533900" y="1800225"/>
+          <a:ext cx="2571750" cy="3438525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -8889"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>627720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4733925" y="5238750"/>
+          <a:ext cx="1380195" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>18120</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2066925" y="5229225"/>
+          <a:ext cx="1380195" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2466976" y="5048250"/>
+          <a:ext cx="1219199" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4286250" y="5334001"/>
+          <a:ext cx="9525" cy="1371599"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="5295900"/>
+          <a:ext cx="0" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>226203</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3819525" y="4038600"/>
+          <a:ext cx="1" cy="959628"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>197628</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829050" y="2819400"/>
+          <a:ext cx="1" cy="959628"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111903</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3790950" y="1781175"/>
+          <a:ext cx="1" cy="959628"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="495300"/>
+          <a:ext cx="914400" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ロード画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>92853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3867150" y="800100"/>
+          <a:ext cx="1" cy="731028"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="1571625"/>
+          <a:ext cx="1066800" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>タイトル画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="2743200"/>
+          <a:ext cx="1524000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>難易度セレクト画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467099" y="3838575"/>
+          <a:ext cx="1362075" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ゲームプレイ画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="3800475"/>
+          <a:ext cx="1485900" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ゲームオーバー画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3371849" y="6657975"/>
+          <a:ext cx="1076325" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>リザルト画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="3819525"/>
+          <a:ext cx="914400" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ポーズ画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="3800475"/>
+          <a:ext cx="914400" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ロード画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4848225" y="5076825"/>
+          <a:ext cx="1219199" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>456735</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809875" y="923926"/>
+          <a:ext cx="1075860" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>秒数で移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>656760</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695700" y="4267200"/>
+          <a:ext cx="1075860" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>秒数で移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838950" y="3076575"/>
+          <a:ext cx="914400" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ロード画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="カギ線コネクタ 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4438649" y="1657350"/>
+          <a:ext cx="47626" cy="5086350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8019834"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791450" y="4057650"/>
+          <a:ext cx="914400" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ポーズ画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981450" y="5695950"/>
+          <a:ext cx="914400" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ポーズ画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="カギ線コネクタ 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="942974" y="1704976"/>
+          <a:ext cx="2486025" cy="3419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -9195"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="カギ線コネクタ 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="0"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1500187" y="3062288"/>
+          <a:ext cx="2114550" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="テキスト ボックス 62"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="2152650"/>
+          <a:ext cx="914400" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ロード画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="テキスト ボックス 63"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="3343275"/>
+          <a:ext cx="914400" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ロード画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104310</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="2143125"/>
+          <a:ext cx="1075860" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>秒数で移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>513885</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="3352800"/>
+          <a:ext cx="1075860" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>秒数で移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304335</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="5695950"/>
+          <a:ext cx="1075860" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>秒数で移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142410</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="テキスト ボックス 68"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="3028950"/>
+          <a:ext cx="1075860" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>秒数で移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>75735</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="テキスト ボックス 69"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601075" y="4029075"/>
+          <a:ext cx="1075860" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>秒数で移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>618196</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>89720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="テキスト ボックス 73"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="2133600"/>
+          <a:ext cx="1504021" cy="585020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ボタンを押す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>218146</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>61145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="テキスト ボックス 75"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="2105025"/>
+          <a:ext cx="1504021" cy="585020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ＢＡＣＫを選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>265771</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="テキスト ボックス 77"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="3295650"/>
+          <a:ext cx="1504021" cy="585020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>難易度を選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>380071</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>64862</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="テキスト ボックス 78"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="4743450"/>
+          <a:ext cx="1389721" cy="331562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ゲームオーバー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>604192</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107090</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="テキスト ボックス 80"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="5257800"/>
+          <a:ext cx="956617" cy="573815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>リトライを選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>604192</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>192815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="テキスト ボックス 81"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="3914775"/>
+          <a:ext cx="956617" cy="573815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>セレクトを選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>270817</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>230915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="テキスト ボックス 82"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2762250"/>
+          <a:ext cx="956617" cy="573815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>タイトルを選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>385117</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>221390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="テキスト ボックス 83"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="6086475"/>
+          <a:ext cx="956617" cy="573815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>リトライを選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>484846</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>236312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="テキスト ボックス 84"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="5867400"/>
+          <a:ext cx="1389721" cy="331562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ゲームクリア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>137467</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="テキスト ボックス 86"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="6200775"/>
+          <a:ext cx="956617" cy="573815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>タイトルを選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>78515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="テキスト ボックス 87"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4895850" y="4514850"/>
+          <a:ext cx="1266825" cy="573815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>スタートボタンを押す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>480367</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>78515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="テキスト ボックス 90"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6381750" y="3800475"/>
+          <a:ext cx="956617" cy="573815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>タイトルを選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4245,7 +6980,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4294,7 +7029,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4343,7 +7078,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5947,7 +8682,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6634,7 +9369,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9389,7 +12124,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12575,17 +15310,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="33"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="目次!A1" display="目次へ"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12607,7 +15364,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12776,7 +15533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -12849,7 +15606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/樋田関係/クモ仕様書(β樋田用).xlsx
+++ b/樋田関係/クモ仕様書(β樋田用).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="793" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="793" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -14,14 +14,16 @@
     <sheet name="タイトル" sheetId="17" r:id="rId5"/>
     <sheet name="ステージセレクト" sheetId="18" r:id="rId6"/>
     <sheet name="ステージ" sheetId="19" r:id="rId7"/>
-    <sheet name="プレイヤー" sheetId="7" r:id="rId8"/>
-    <sheet name="カメラ" sheetId="13" r:id="rId9"/>
-    <sheet name="木" sheetId="10" r:id="rId10"/>
-    <sheet name="糸" sheetId="11" r:id="rId11"/>
-    <sheet name="奪った糸" sheetId="15" r:id="rId12"/>
-    <sheet name="UI" sheetId="12" r:id="rId13"/>
-    <sheet name="操作説明" sheetId="14" r:id="rId14"/>
-    <sheet name="AI" sheetId="21" r:id="rId15"/>
+    <sheet name="ポーズ" sheetId="23" r:id="rId8"/>
+    <sheet name="リザルト" sheetId="24" r:id="rId9"/>
+    <sheet name="プレイヤー" sheetId="7" r:id="rId10"/>
+    <sheet name="カメラ" sheetId="13" r:id="rId11"/>
+    <sheet name="木" sheetId="10" r:id="rId12"/>
+    <sheet name="糸" sheetId="11" r:id="rId13"/>
+    <sheet name="奪った糸" sheetId="15" r:id="rId14"/>
+    <sheet name="UI" sheetId="12" r:id="rId15"/>
+    <sheet name="操作説明" sheetId="14" r:id="rId16"/>
+    <sheet name="AI" sheetId="21" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="196">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -3877,6 +3879,65 @@
   </si>
   <si>
     <t>　フローチャート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ画面イメージ</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ画面の挙動</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲームプレイ画面でスタートボタンが押された場合遷移</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・背景はスタートボタンが押されたタイミング</t>
+    <rPh sb="1" eb="3">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4107,7 +4168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4152,6 +4213,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4185,9 +4249,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4213,6 +4276,58 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="カギ線コネクタ 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4953000" y="2924175"/>
+          <a:ext cx="2114550" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -12162"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -4337,106 +4452,6 @@
         <a:xfrm flipV="1">
           <a:off x="4733925" y="5238750"/>
           <a:ext cx="1380195" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>18120</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直線矢印コネクタ 31"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2066925" y="5229225"/>
-          <a:ext cx="1380195" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2466976" y="5048250"/>
-          <a:ext cx="1219199" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4730,7 +4745,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4844,7 +4861,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4908,7 +4927,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5015,70 +5036,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
             <a:t>ゲームプレイ画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="942975" y="3800475"/>
-          <a:ext cx="1485900" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ゲームオーバー画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5228,7 +5185,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5460,7 +5419,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="テキスト ボックス 41"/>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5576,7 +5537,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5618,7 +5581,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ポーズ画面</a:t>
+            <a:t>ロード画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5682,7 +5645,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ポーズ画面</a:t>
+            <a:t>ロード画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5691,33 +5654,30 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628648</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="57" name="カギ線コネクタ 56"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="1"/>
-          <a:endCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="942974" y="1704976"/>
-          <a:ext cx="2486025" cy="3419475"/>
+          <a:off x="3371848" y="1809750"/>
+          <a:ext cx="57151" cy="5086350"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -9195"/>
+            <a:gd name="adj1" fmla="val -4799916"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="50800">
@@ -5746,32 +5706,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628648</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="60" name="カギ線コネクタ 59"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="0"/>
+          <a:stCxn id="12" idx="1"/>
           <a:endCxn id="8" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="1500187" y="3062288"/>
-          <a:ext cx="2114550" cy="1743075"/>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="3371848" y="2876551"/>
+          <a:ext cx="57151" cy="3914775"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2733286"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="50800">
           <a:solidFill>
@@ -5812,7 +5774,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="テキスト ボックス 62"/>
+        <xdr:cNvPr id="63" name="テキスト ボックス 62">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5876,7 +5840,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="テキスト ボックス 63"/>
+        <xdr:cNvPr id="64" name="テキスト ボックス 63">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6399,124 +6365,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>380071</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>64862</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="テキスト ボックス 78"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2419350" y="4743450"/>
-          <a:ext cx="1389721" cy="331562"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ゲームオーバー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>604192</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>107090</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="テキスト ボックス 80"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2390775" y="5257800"/>
-          <a:ext cx="956617" cy="573815"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>リトライを選択</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -6928,6 +6776,65 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="テキスト ボックス 58"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="2333624"/>
+          <a:ext cx="1200150" cy="628651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>難易度セレクトを選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7079,6 +6986,55 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>220861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971674" y="1266825"/>
+          <a:ext cx="5895975" cy="3316486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8682,7 +8638,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9369,7 +9325,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12124,7 +12080,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -14437,10 +14393,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14478,11 +14434,11 @@
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="34" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="35" t="s">
         <v>127</v>
       </c>
     </row>
@@ -14491,25 +14447,25 @@
         <v>122</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="35" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="35" t="s">
         <v>129</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="35" t="s">
         <v>123</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="35" t="s">
         <v>131</v>
       </c>
       <c r="D7" s="6"/>
@@ -14519,47 +14475,448 @@
         <v>124</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="35" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="35" t="s">
         <v>125</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="35" t="s">
         <v>132</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="35" t="s">
         <v>126</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="34" t="s">
+        <v>188</v>
+      </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A4" location="フローチャート!A1" display="フローチャート"/>
+    <hyperlink ref="A6" location="タイトル!A1" display="タイトル"/>
+    <hyperlink ref="A7" location="ステージセレクト!A1" display="ステージセレクト"/>
+    <hyperlink ref="A9" location="プレイヤー!A1" display="プレイヤー"/>
+    <hyperlink ref="A10" location="カメラ!A1" display="カメラ"/>
+    <hyperlink ref="C4" location="木!A1" display="木"/>
+    <hyperlink ref="C5" location="糸!A1" display="糸"/>
+    <hyperlink ref="C6" location="奪った糸!A1" display="奪った糸"/>
+    <hyperlink ref="C8" location="UI!A1" display="UI"/>
+    <hyperlink ref="C9" location="操作説明!A1" display="操作説明"/>
+    <hyperlink ref="C7" location="AI!A1" display="AI(敵)"/>
+    <hyperlink ref="A11" location="ロード!A1" display="ロード"/>
+    <hyperlink ref="A12" location="リザルト!A1" display="リザルト"/>
+    <hyperlink ref="A13" location="ポーズ!A1" display="ポーズ"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B32" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B33" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B38" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B39" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B40" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B43" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B44" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B45" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B46" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="目次!A1" display="目次へ"/>
+    <hyperlink ref="P21" location="糸!A1" display="糸"/>
+    <hyperlink ref="L17" location="木!A1" display="木"/>
+    <hyperlink ref="G9" location="カメラ!A1" display="カメラ"/>
+    <hyperlink ref="G22" location="カメラ!A1" display="カメラ"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:I53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="23"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I24" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="操作説明!A36" display="カメラ旋回は操作説明ページに入ってる"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -14576,10 +14933,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -14655,7 +15012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -14672,10 +15029,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -14751,7 +15108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -14786,140 +15143,140 @@
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="25"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="26"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="28"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="29"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="29"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="28"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="29"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="28"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="28"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="29"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="28"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14932,7 +15289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -14949,10 +15306,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -15056,14 +15413,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -15073,10 +15430,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
@@ -15216,7 +15573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -15234,10 +15591,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -15312,8 +15669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15322,10 +15679,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -15363,17 +15720,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -15453,17 +15810,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -15534,7 +15891,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15619,251 +15976,43 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="23"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B32" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B33" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B36" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B37" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B38" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B39" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B40" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B43" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B44" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B45" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B46" s="1" t="s">
-        <v>156</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -15873,121 +16022,21 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B2" location="目次!A1" display="目次へ"/>
-    <hyperlink ref="P21" location="糸!A1" display="糸"/>
-    <hyperlink ref="L17" location="木!A1" display="木"/>
-    <hyperlink ref="G9" location="カメラ!A1" display="カメラ"/>
-    <hyperlink ref="G22" location="カメラ!A1" display="カメラ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I22" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I23" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I24" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="10"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="B2" location="操作説明!A36" display="カメラ旋回は操作説明ページに入ってる"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>